--- a/data/trans_orig/P04A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04A_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F392CDB-315E-453F-9266-31E10974D0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC1DF2DC-4426-46DF-AE08-F44D304EFCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E83C02E-D4BB-4DCB-BADE-0E34A124A40C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{31C795AB-AD58-4D87-A927-714F87E47363}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="322">
-  <si>
-    <t>Población según si lavivienda que ocupan es de propiedad o de alquiler en 2023 (Tasa respuesta: 99,63%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="317">
+  <si>
+    <t>Población según si la vivienda que ocupan es de propiedad o de alquiler en 2023 (Tasa respuesta: 99,63%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,13 +83,13 @@
     <t>2,18%</t>
   </si>
   <si>
-    <t>8,35%</t>
+    <t>8,33%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>4,34%</t>
+    <t>4,49%</t>
   </si>
   <si>
     <t>En cesión (gratuita o bajo precio)</t>
@@ -101,16 +101,16 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>5,9%</t>
+    <t>7,06%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>En alquiler</t>
@@ -119,25 +119,25 @@
     <t>7,12%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>2,77%</t>
+    <t>2,68%</t>
   </si>
   <si>
     <t>7,95%</t>
@@ -149,802 +149,784 @@
     <t>8,7%</t>
   </si>
   <si>
-    <t>4,14%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>En propiedad, con hipoteca</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>En propiedad, totalmente pagada</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
   </si>
   <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>En propiedad, con hipoteca</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>En propiedad, totalmente pagada</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>2,33%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>1,31%</t>
+    <t>1,9%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>10,56%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>3,82%</t>
+    <t>3,78%</t>
   </si>
   <si>
     <t>4,83%</t>
@@ -953,52 +935,55 @@
     <t>24,47%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
   </si>
   <si>
     <t>23,53%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
   </si>
   <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
   </si>
   <si>
     <t>57,67%</t>
   </si>
   <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
   </si>
   <si>
     <t>60,11%</t>
   </si>
   <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
   </si>
   <si>
     <t>58,97%</t>
   </si>
   <si>
-    <t>57,56%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1413,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7F5813-C22D-466B-A7CD-3177FFA7BC7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75D8451-1B15-43C5-AD73-5A72ADEF8DC8}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1965,10 +1950,10 @@
         <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>38</v>
@@ -1977,13 +1962,13 @@
         <v>32678</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +1983,13 @@
         <v>34496</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -2013,13 +1998,13 @@
         <v>67650</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -2028,13 +2013,13 @@
         <v>102147</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,13 +2034,13 @@
         <v>43087</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -2064,13 +2049,13 @@
         <v>26005</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -2079,13 +2064,13 @@
         <v>69092</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2085,13 @@
         <v>96514</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H15" s="7">
         <v>169</v>
@@ -2115,13 +2100,13 @@
         <v>120851</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M15" s="7">
         <v>253</v>
@@ -2130,13 +2115,13 @@
         <v>217365</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2136,13 @@
         <v>338442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H16" s="7">
         <v>699</v>
@@ -2166,13 +2151,13 @@
         <v>382044</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>1115</v>
@@ -2181,13 +2166,13 @@
         <v>720485</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,7 +2228,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2255,13 +2240,13 @@
         <v>3946</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -2270,13 +2255,13 @@
         <v>4685</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -2285,13 +2270,13 @@
         <v>8632</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2291,13 @@
         <v>14994</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -2321,13 +2306,13 @@
         <v>14217</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -2336,13 +2321,13 @@
         <v>29210</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2342,13 @@
         <v>94191</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>125</v>
@@ -2372,13 +2357,13 @@
         <v>92024</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>233</v>
@@ -2387,13 +2372,13 @@
         <v>186216</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,13 +2393,13 @@
         <v>46849</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H21" s="7">
         <v>63</v>
@@ -2423,13 +2408,13 @@
         <v>45107</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M21" s="7">
         <v>99</v>
@@ -2438,13 +2423,13 @@
         <v>91957</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2444,13 @@
         <v>282252</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H22" s="7">
         <v>368</v>
@@ -2474,13 +2459,13 @@
         <v>293148</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M22" s="7">
         <v>597</v>
@@ -2489,13 +2474,13 @@
         <v>575400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2495,13 @@
         <v>587975</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H23" s="7">
         <v>925</v>
@@ -2525,13 +2510,13 @@
         <v>607366</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M23" s="7">
         <v>1487</v>
@@ -2540,13 +2525,13 @@
         <v>1195341</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,7 +2587,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2614,13 +2599,13 @@
         <v>3636</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -2629,7 +2614,7 @@
         <v>11271</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>176</v>
@@ -2647,10 +2632,10 @@
         <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2650,13 @@
         <v>14209</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -2680,13 +2665,13 @@
         <v>5413</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -2698,10 +2683,10 @@
         <v>22</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2701,13 @@
         <v>83779</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>133</v>
@@ -2731,13 +2716,13 @@
         <v>85014</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>237</v>
@@ -2746,13 +2731,13 @@
         <v>168793</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2752,13 @@
         <v>33314</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>34</v>
@@ -2782,13 +2767,13 @@
         <v>31616</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>57</v>
@@ -2797,13 +2782,13 @@
         <v>64931</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,13 +2803,13 @@
         <v>202772</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>277</v>
@@ -2833,13 +2818,13 @@
         <v>213339</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>432</v>
@@ -2848,13 +2833,13 @@
         <v>416112</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2854,13 @@
         <v>386286</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>575</v>
@@ -2884,13 +2869,13 @@
         <v>522698</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>952</v>
@@ -2899,13 +2884,13 @@
         <v>908985</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,7 +2946,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2973,13 +2958,13 @@
         <v>9475</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -2988,13 +2973,13 @@
         <v>3890</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -3003,13 +2988,13 @@
         <v>13366</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3009,13 @@
         <v>13482</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H33" s="7">
         <v>18</v>
@@ -3039,13 +3024,13 @@
         <v>15484</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M33" s="7">
         <v>32</v>
@@ -3054,13 +3039,13 @@
         <v>28966</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3060,13 @@
         <v>123501</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>190</v>
@@ -3090,13 +3075,13 @@
         <v>154104</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>329</v>
@@ -3105,13 +3090,13 @@
         <v>277605</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3111,13 @@
         <v>33737</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
@@ -3141,13 +3126,13 @@
         <v>28152</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>70</v>
@@ -3156,13 +3141,13 @@
         <v>61889</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3162,13 @@
         <v>222079</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>328</v>
@@ -3192,13 +3177,13 @@
         <v>255843</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>535</v>
@@ -3207,13 +3192,13 @@
         <v>477923</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3213,13 @@
         <v>559884</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>978</v>
@@ -3243,13 +3228,13 @@
         <v>690745</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>1582</v>
@@ -3258,13 +3243,13 @@
         <v>1250628</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3317,13 @@
         <v>32675</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="H39" s="7">
         <v>36</v>
@@ -3347,13 +3332,13 @@
         <v>25504</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M39" s="7">
         <v>59</v>
@@ -3362,13 +3347,13 @@
         <v>58179</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>278</v>
+        <v>129</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3368,13 @@
         <v>58672</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="H40" s="7">
         <v>72</v>
@@ -3398,13 +3383,13 @@
         <v>54670</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>132</v>
@@ -3413,13 +3398,13 @@
         <v>113342</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>286</v>
+        <v>72</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>135</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3419,13 @@
         <v>343232</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>518</v>
@@ -3449,13 +3434,13 @@
         <v>403307</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M41" s="7">
         <v>919</v>
@@ -3464,13 +3449,13 @@
         <v>746540</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3470,13 @@
         <v>165861</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>193</v>
@@ -3500,13 +3485,13 @@
         <v>141834</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M42" s="7">
         <v>340</v>
@@ -3515,13 +3500,13 @@
         <v>307696</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3521,13 @@
         <v>822934</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H43" s="7">
         <v>1166</v>
@@ -3551,13 +3536,13 @@
         <v>898942</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M43" s="7">
         <v>1855</v>
@@ -3566,13 +3551,13 @@
         <v>1721876</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,16 +3569,16 @@
         <v>2044</v>
       </c>
       <c r="D44" s="7">
-        <v>1939116</v>
+        <v>1939117</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H44" s="7">
         <v>3362</v>
@@ -3602,13 +3587,13 @@
         <v>2296641</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M44" s="7">
         <v>5406</v>
@@ -3617,13 +3602,13 @@
         <v>4235757</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,7 +3620,7 @@
         <v>3364</v>
       </c>
       <c r="D45" s="7">
-        <v>3362491</v>
+        <v>3362492</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>65</v>
@@ -3679,7 +3664,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
